--- a/bots/crawl_ch/output/bread_coop_2023-01-25.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-25.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" t="n">
         <v>4.5</v>
@@ -2644,7 +2644,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -6652,7 +6652,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -6725,7 +6725,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -7009,7 +7009,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -7512,7 +7512,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7650,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -7719,7 +7719,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7934,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -8003,7 +8003,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -8072,7 +8072,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -8214,7 +8214,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -8283,7 +8283,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -8571,7 +8571,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -8640,7 +8640,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8709,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -8782,7 +8782,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -8855,7 +8855,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8924,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -9070,7 +9070,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -9285,7 +9285,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -9358,7 +9358,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -9642,7 +9642,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -9780,7 +9780,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -9853,7 +9853,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -9999,7 +9999,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -10210,7 +10210,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -10348,7 +10348,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -10490,7 +10490,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -10559,7 +10559,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10912,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -11123,7 +11123,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -11484,7 +11484,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -11971,7 +11971,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12186,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -12328,7 +12328,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -12397,7 +12397,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -12470,7 +12470,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -12543,7 +12543,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -12616,7 +12616,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -12685,7 +12685,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -12754,7 +12754,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -12900,7 +12900,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -12973,7 +12973,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -13042,7 +13042,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -13115,7 +13115,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -13188,7 +13188,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -13330,7 +13330,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -13403,7 +13403,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -13687,7 +13687,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -13756,7 +13756,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -13825,7 +13825,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -13894,7 +13894,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -13963,7 +13963,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -14032,7 +14032,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -14105,7 +14105,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -14178,7 +14178,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -14251,7 +14251,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -14320,7 +14320,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -14389,7 +14389,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14458,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -14527,7 +14527,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -14742,7 +14742,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -14815,7 +14815,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -14888,7 +14888,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14961,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -15034,7 +15034,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -15249,7 +15249,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -15318,7 +15318,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -15387,7 +15387,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -15460,7 +15460,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -15529,7 +15529,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -15598,7 +15598,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -15744,7 +15744,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -15838,10 +15838,10 @@
         </is>
       </c>
       <c r="D217" t="n">
+        <v>5</v>
+      </c>
+      <c r="E217" t="n">
         <v>4</v>
-      </c>
-      <c r="E217" t="n">
-        <v>5</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -15959,7 +15959,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -16028,7 +16028,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -16097,7 +16097,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -16166,7 +16166,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -16239,7 +16239,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -16308,7 +16308,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -16519,7 +16519,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -16592,7 +16592,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -16661,7 +16661,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -16734,7 +16734,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -16803,7 +16803,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -16876,7 +16876,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -16945,7 +16945,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -17014,7 +17014,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -17083,7 +17083,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -17152,7 +17152,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -17225,7 +17225,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -17294,7 +17294,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17363,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -17436,7 +17436,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -17505,7 +17505,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -17578,7 +17578,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -17649,7 +17649,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -17718,7 +17718,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -17787,7 +17787,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -17860,7 +17860,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -18002,7 +18002,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -18071,7 +18071,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -18140,7 +18140,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -18209,7 +18209,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -18282,7 +18282,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -18351,7 +18351,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -18418,7 +18418,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -18487,7 +18487,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -18550,13 +18550,13 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück 8.50 Schweizer Franken</t>
+          <t>Pasquier Schokobrötchen 16 Stück - Online kein Bestand 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -18625,7 +18625,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -18694,7 +18694,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -18763,7 +18763,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -18832,7 +18832,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -18905,7 +18905,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -18978,7 +18978,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -19051,7 +19051,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -19124,7 +19124,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -19197,7 +19197,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -19270,7 +19270,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -19339,7 +19339,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -19412,7 +19412,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -19485,7 +19485,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -19558,7 +19558,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -19631,7 +19631,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -19700,7 +19700,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -19769,7 +19769,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -19842,7 +19842,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -19911,7 +19911,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -19980,7 +19980,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -20049,7 +20049,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -20118,7 +20118,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -20187,7 +20187,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -20260,7 +20260,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -20329,7 +20329,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -20350,7 +20350,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -20398,7 +20398,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -20471,7 +20471,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -20540,7 +20540,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -20613,7 +20613,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -20684,7 +20684,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -20757,7 +20757,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -20830,7 +20830,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -20897,7 +20897,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -20970,7 +20970,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -21039,7 +21039,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -21108,7 +21108,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -21175,7 +21175,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -21248,7 +21248,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -21321,7 +21321,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -21394,7 +21394,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -21467,7 +21467,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -21536,7 +21536,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -21605,7 +21605,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -21674,7 +21674,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -21743,7 +21743,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -21812,7 +21812,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -21881,7 +21881,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -21950,7 +21950,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -22019,7 +22019,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -22088,7 +22088,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -22157,7 +22157,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -22226,7 +22226,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -22295,7 +22295,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -22364,7 +22364,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -22437,7 +22437,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -22506,7 +22506,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -22575,7 +22575,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -22644,7 +22644,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -22713,7 +22713,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -22786,7 +22786,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -22859,7 +22859,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -22928,7 +22928,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -22997,7 +22997,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -23064,7 +23064,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -23137,7 +23137,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -23206,7 +23206,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -23279,7 +23279,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -23352,7 +23352,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -23425,7 +23425,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -23494,7 +23494,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -23563,7 +23563,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -23632,7 +23632,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -23701,7 +23701,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -23774,7 +23774,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -23843,7 +23843,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -23912,7 +23912,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -23981,7 +23981,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -24050,7 +24050,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -24119,7 +24119,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -24188,7 +24188,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -24257,7 +24257,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -24326,7 +24326,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -24395,7 +24395,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -24462,7 +24462,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -24533,7 +24533,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -24600,7 +24600,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -24673,7 +24673,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -24742,7 +24742,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -24811,7 +24811,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -24880,7 +24880,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -24949,7 +24949,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -25018,7 +25018,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -25091,7 +25091,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -25160,7 +25160,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -25229,7 +25229,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -25298,7 +25298,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -25365,7 +25365,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -25434,7 +25434,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -25507,7 +25507,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -25576,7 +25576,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -25645,7 +25645,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -25718,7 +25718,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -25791,7 +25791,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -25864,7 +25864,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -25937,7 +25937,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -26006,7 +26006,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -26075,7 +26075,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -26144,7 +26144,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -26213,7 +26213,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -26286,7 +26286,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -26353,7 +26353,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -26426,7 +26426,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -26499,7 +26499,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -26572,7 +26572,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -26643,7 +26643,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -26716,7 +26716,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -26785,7 +26785,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -26858,7 +26858,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -26929,7 +26929,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -27002,7 +27002,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -27075,7 +27075,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -27148,7 +27148,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -27217,7 +27217,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -27286,7 +27286,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -27353,7 +27353,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -27422,7 +27422,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -27489,7 +27489,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -27558,7 +27558,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -27625,7 +27625,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -27694,7 +27694,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -27767,7 +27767,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -27834,7 +27834,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -27903,7 +27903,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -27972,7 +27972,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -28041,7 +28041,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -28108,7 +28108,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -28177,7 +28177,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -28246,7 +28246,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -28315,7 +28315,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
@@ -28386,7 +28386,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-25 06:49:22</t>
+          <t>2023-01-25 12:56:30</t>
         </is>
       </c>
     </row>
